--- a/src/test/resources/CIB_Assessment.xlsx
+++ b/src/test/resources/CIB_Assessment.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ashwin\IdeaProjects\Sel1\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C0E5D6D-8AA0-4AB5-A593-C5EEE97B4033}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7614DD38-7DF0-40A2-87F4-CB500FBC91E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
@@ -58,9 +58,6 @@
     <t>Year</t>
   </si>
   <si>
-    <t>Srikanth</t>
-  </si>
-  <si>
     <t>South Africa</t>
   </si>
   <si>
@@ -68,6 +65,9 @@
   </si>
   <si>
     <t>Absa</t>
+  </si>
+  <si>
+    <t>Surendra</t>
   </si>
 </sst>
 </file>
@@ -124,10 +124,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -412,16 +411,16 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="63.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.7109375" customWidth="1"/>
+    <col min="1" max="1" width="63.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -429,8 +428,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2" t="s">
@@ -447,54 +446,54 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" t="s">
         <v>10</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>11</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>12</v>
       </c>
-      <c r="D2" t="s">
-        <v>13</v>
-      </c>
       <c r="E2">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F2">
-        <v>2021</v>
+        <v>2023</v>
       </c>
     </row>
   </sheetData>
